--- a/example/employee_details.xlsx
+++ b/example/employee_details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -58,19 +58,22 @@
     <t xml:space="preserve">employee1@josh.com</t>
   </si>
   <si>
+    <t xml:space="preserve">wert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12$gDrjmKj3Ahw73lyysD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">josh employee 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee2@josh.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12$gDrjmKj3Ahw73lyysD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">josh employee 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employee2@josh.com</t>
   </si>
   <si>
     <t xml:space="preserve">Wedk2q9mWAJBZioo</t>
@@ -118,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ H:MM:SS"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY\ H:MM:SS"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -160,12 +163,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -216,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,10 +235,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,19 +266,19 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="14.43"/>
@@ -370,7 +363,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -380,10 +373,10 @@
         <v>7355785295</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
@@ -402,20 +395,20 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>6370123864</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
@@ -423,31 +416,31 @@
       <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="8" t="n">
-        <v>43899.2970601852</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="7" t="n">
+        <v>43899.2970601852</v>
+      </c>
+      <c r="J4" s="7" t="n">
         <v>43899.2970601852</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>8290605799</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
@@ -455,31 +448,31 @@
       <c r="G5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="n">
-        <v>43899.2970601852</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="7" t="n">
+        <v>43899.2970601852</v>
+      </c>
+      <c r="J5" s="7" t="n">
         <v>43899.2970601852</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
+      <c r="A6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>9884885572</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
@@ -487,31 +480,31 @@
       <c r="G6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="8" t="n">
-        <v>43899.2970601852</v>
-      </c>
-      <c r="J6" s="8" t="n">
+      <c r="I6" s="7" t="n">
+        <v>43899.2970601852</v>
+      </c>
+      <c r="J6" s="7" t="n">
         <v>43899.2970601852</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
+      <c r="A7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>4792306476</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
@@ -519,13 +512,13 @@
       <c r="G7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8" t="n">
-        <v>43899.2970601852</v>
-      </c>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="7" t="n">
+        <v>43899.2970601852</v>
+      </c>
+      <c r="J7" s="7" t="n">
         <v>43899.2970601852</v>
       </c>
     </row>
